--- a/Log.xlsx
+++ b/Log.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Kuliah\Smt 2\Office\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>PROJECT LOG</t>
   </si>
@@ -78,6 +68,9 @@
   </si>
   <si>
     <t>Membagi wilayah pilkada seluruh indonesia untuk mencari partai pengusung masing calon</t>
+  </si>
+  <si>
+    <t>scrap data from internet</t>
   </si>
 </sst>
 </file>
@@ -196,13 +189,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -212,30 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -247,9 +240,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -298,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,71 +524,71 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -676,8 +666,12 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -686,21 +680,197 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
